--- a/ERP_Accounting/TestOutput/Hybrid.xlsx
+++ b/ERP_Accounting/TestOutput/Hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
+    <workbookView windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="104">
   <si>
     <t>TCID</t>
   </si>
@@ -160,10 +160,175 @@
     <t>StockCategories</t>
   </si>
   <si>
+    <t>Click On Supplier</t>
+  </si>
+  <si>
+    <t>Click On Add Button</t>
+  </si>
+  <si>
+    <t>Capture Data</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Wait For City</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Wait For Country</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Wait For Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>capturData</t>
+  </si>
+  <si>
+    <t>Wait For Email</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>Wait For Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Wait For Notes</t>
+  </si>
+  <si>
+    <t>Wait For Add Button</t>
+  </si>
+  <si>
+    <t>Click For Add Button</t>
+  </si>
+  <si>
+    <t>Wait For Ok Button</t>
+  </si>
+  <si>
+    <t>Click On Ok</t>
+  </si>
+  <si>
+    <t>Wait For Alert</t>
+  </si>
+  <si>
+    <t>Click On Alert</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>Srinivash</t>
+  </si>
+  <si>
+    <t>Balkampet</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>srinivash@gmail.com</t>
+  </si>
+  <si>
+    <t>Add As New Supplier</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
+  </si>
+  <si>
+    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait For Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Number</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Name</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter the Notes</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -171,7 +336,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +355,337 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -404,10 +900,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -416,7 +916,8 @@
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -442,8 +943,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,10 +1329,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s" s="33">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -786,10 +1343,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="89">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -803,7 +1360,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -866,9 +1423,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="8">
-        <v>47</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -886,9 +1441,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>47</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -906,9 +1459,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>47</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -926,9 +1477,7 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="14">
-        <v>47</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -946,9 +1495,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="16">
-        <v>47</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -966,9 +1513,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="18">
-        <v>47</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -986,9 +1531,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="20">
-        <v>47</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -1006,9 +1549,7 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="22">
-        <v>47</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
@@ -1026,9 +1567,7 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="24">
-        <v>47</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
@@ -1046,9 +1585,7 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="26">
-        <v>47</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -1066,9 +1603,7 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="28">
-        <v>47</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -1086,9 +1621,7 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="30">
-        <v>47</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
@@ -1106,9 +1639,7 @@
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="32">
-        <v>47</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1118,12 +1649,832 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="58.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="8.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="36">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s" s="40">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="42">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s" s="44">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="46">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="48">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="50">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s" s="52">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="54">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s" s="56">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="58">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="2">
+        <v>98123456789</v>
+      </c>
+      <c r="F27" t="s" s="60">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="62">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s" s="64">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2">
+        <v>87987654321</v>
+      </c>
+      <c r="F31" t="s" s="68">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="70">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s" s="72">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="74">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="76">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="78">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="80">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="82">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="84">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s" s="86">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="88">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E29"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/ERP_Accounting/TestOutput/Hybrid.xlsx
+++ b/ERP_Accounting/TestOutput/Hybrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
+    <workbookView activeTab="3" windowHeight="7935" windowWidth="15255" xWindow="120" yWindow="75"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="119">
   <si>
     <t>TCID</t>
   </si>
@@ -154,175 +154,220 @@
     <t>SupplierCreation</t>
   </si>
   <si>
+    <t>StockCategories</t>
+  </si>
+  <si>
+    <t>Click On Supplier</t>
+  </si>
+  <si>
+    <t>Click On Add Button</t>
+  </si>
+  <si>
+    <t>Capture Data</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Wait For City</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Wait For Country</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Wait For Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>capturData</t>
+  </si>
+  <si>
+    <t>Wait For Email</t>
+  </si>
+  <si>
+    <t>Enter Email ID</t>
+  </si>
+  <si>
+    <t>Wait For Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Wait For Notes</t>
+  </si>
+  <si>
+    <t>Wait For Add Button</t>
+  </si>
+  <si>
+    <t>Click For Add Button</t>
+  </si>
+  <si>
+    <t>Wait For Ok Button</t>
+  </si>
+  <si>
+    <t>Click On Ok</t>
+  </si>
+  <si>
+    <t>Wait For Alert</t>
+  </si>
+  <si>
+    <t>Click On Alert</t>
+  </si>
+  <si>
+    <t>Table Validation</t>
+  </si>
+  <si>
+    <t>tableValidation</t>
+  </si>
+  <si>
+    <t>Balkampet</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Add As New Supplier</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
+  </si>
+  <si>
+    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Number']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>//button[@class='ajs-button btn btn-primary']</t>
+  </si>
+  <si>
+    <t>Wait For Supplier</t>
+  </si>
+  <si>
+    <t>Wait For Address</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Number</t>
+  </si>
+  <si>
+    <t>Wait For Supplier Name</t>
+  </si>
+  <si>
+    <t>Wait For Phone Number</t>
+  </si>
+  <si>
+    <t>Enter the Notes</t>
+  </si>
+  <si>
+    <t>Wait For Stock Item</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>Wait For Category Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Click On Ok Button</t>
+  </si>
+  <si>
+    <t>Wait For Alert Button</t>
+  </si>
+  <si>
+    <t>Click On Alert Button</t>
+  </si>
+  <si>
+    <t>Table bValidation</t>
+  </si>
+  <si>
+    <t>stockCategories</t>
+  </si>
+  <si>
+    <t>stockValidation</t>
+  </si>
+  <si>
+    <t>//li[@id='mi_a_stock_items']//a[contains(text(),'Stock Items')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>Srinivasha</t>
+  </si>
+  <si>
+    <t>Saurabh12</t>
+  </si>
+  <si>
+    <t>srinivash21@gmail.com</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>StockCategories</t>
-  </si>
-  <si>
-    <t>Click On Supplier</t>
-  </si>
-  <si>
-    <t>Click On Add Button</t>
-  </si>
-  <si>
-    <t>Capture Data</t>
-  </si>
-  <si>
-    <t>Enter Supplier Name</t>
-  </si>
-  <si>
-    <t>Enter Address</t>
-  </si>
-  <si>
-    <t>Wait For City</t>
-  </si>
-  <si>
-    <t>Enter City</t>
-  </si>
-  <si>
-    <t>Wait For Country</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Wait For Contact Person</t>
-  </si>
-  <si>
-    <t>Enter Contact Person</t>
-  </si>
-  <si>
-    <t>Enter Phone Number</t>
-  </si>
-  <si>
-    <t>capturData</t>
-  </si>
-  <si>
-    <t>Wait For Email</t>
-  </si>
-  <si>
-    <t>Enter Email ID</t>
-  </si>
-  <si>
-    <t>Wait For Mobile Number</t>
-  </si>
-  <si>
-    <t>Enter Mobile Number</t>
-  </si>
-  <si>
-    <t>Wait For Notes</t>
-  </si>
-  <si>
-    <t>Wait For Add Button</t>
-  </si>
-  <si>
-    <t>Click For Add Button</t>
-  </si>
-  <si>
-    <t>Wait For Ok Button</t>
-  </si>
-  <si>
-    <t>Click On Ok</t>
-  </si>
-  <si>
-    <t>Wait For Alert</t>
-  </si>
-  <si>
-    <t>Click On Alert</t>
-  </si>
-  <si>
-    <t>Table Validation</t>
-  </si>
-  <si>
-    <t>tableValidation</t>
-  </si>
-  <si>
-    <t>Srinivash</t>
-  </si>
-  <si>
-    <t>Balkampet</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Saurabh</t>
-  </si>
-  <si>
-    <t>srinivash@gmail.com</t>
-  </si>
-  <si>
-    <t>Add As New Supplier</t>
-  </si>
-  <si>
-    <t>//li[@id='mi_a_suppliers']//a[contains(text(),'Suppliers')]</t>
-  </si>
-  <si>
-    <t>//div[@class='panel-heading ewGridUpperPanel']//span[@class='glyphicon glyphicon-plus ewIcon']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Supplier_Number']</t>
-  </si>
-  <si>
-    <t>x_Supplier_Number</t>
-  </si>
-  <si>
-    <t>x_Supplier_Name</t>
-  </si>
-  <si>
-    <t>//textarea[@id='x_Address']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_City']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Country']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Contact_Person']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Phone_Number']</t>
-  </si>
-  <si>
-    <t>//input[@id='x__Email']</t>
-  </si>
-  <si>
-    <t>//input[@id='x_Mobile_Number']</t>
-  </si>
-  <si>
-    <t>//textarea[@id='x_Notes']</t>
-  </si>
-  <si>
-    <t>btnAction</t>
-  </si>
-  <si>
-    <t>//button[contains(text(),'OK!')]</t>
-  </si>
-  <si>
-    <t>//button[@class='ajs-button btn btn-primary']</t>
-  </si>
-  <si>
-    <t>Wait For Supplier</t>
-  </si>
-  <si>
-    <t>Wait For Address</t>
-  </si>
-  <si>
-    <t>Wait For Supplier Number</t>
-  </si>
-  <si>
-    <t>Wait For Supplier Name</t>
-  </si>
-  <si>
-    <t>Wait For Phone Number</t>
-  </si>
-  <si>
-    <t>Enter the Notes</t>
+    <t>Asus Zenfone93</t>
   </si>
   <si>
     <t>Not Executed</t>
@@ -336,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="84">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,222 +407,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -907,7 +736,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -962,42 +791,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1295,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,10 +1122,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1343,10 +1136,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s" s="89">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1354,13 +1147,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="53">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1651,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1661,7 +1454,7 @@
     <col min="2" max="2" customWidth="true" width="16.85546875" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="10.0" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="58.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="false"/>
     <col min="6" max="6" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
@@ -1701,9 +1494,7 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="10">
-        <v>103</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1721,9 +1512,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="12">
-        <v>103</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
@@ -1741,9 +1530,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="14">
-        <v>103</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
@@ -1761,9 +1548,7 @@
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s" s="16">
-        <v>103</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
@@ -1781,9 +1566,7 @@
       <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="18">
-        <v>103</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
@@ -1801,9 +1584,7 @@
       <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s" s="20">
-        <v>103</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
@@ -1821,9 +1602,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="22">
-        <v>103</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
@@ -1841,13 +1620,11 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s" s="24">
-        <v>103</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -1856,18 +1633,16 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="26">
-        <v>103</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1876,16 +1651,14 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="28">
-        <v>103</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -1894,18 +1667,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="30">
-        <v>103</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -1914,16 +1685,14 @@
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="32">
-        <v>103</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -1932,36 +1701,32 @@
         <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="34">
-        <v>103</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="36">
-        <v>103</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -1970,18 +1735,16 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="38">
-        <v>103</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1990,18 +1753,16 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s" s="40">
-        <v>103</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -2010,18 +1771,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="42">
-        <v>103</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -2030,18 +1789,16 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s" s="44">
-        <v>103</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -2050,18 +1807,16 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="46">
-        <v>103</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -2070,18 +1825,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s" s="48">
-        <v>103</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -2090,18 +1843,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="50">
-        <v>103</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -2110,18 +1861,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s" s="52">
-        <v>103</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -2130,18 +1879,16 @@
         <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="54">
-        <v>103</v>
-      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -2150,18 +1897,16 @@
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s" s="56">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -2170,18 +1915,16 @@
         <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="58">
-        <v>103</v>
-      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -2190,18 +1933,16 @@
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2">
         <v>98123456789</v>
       </c>
-      <c r="F27" t="s" s="60">
-        <v>103</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -2210,18 +1951,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="62">
-        <v>103</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
@@ -2230,18 +1969,16 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s" s="64">
-        <v>103</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -2250,18 +1987,16 @@
         <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
-      <c r="F30" t="s" s="66">
-        <v>103</v>
-      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -2270,18 +2005,16 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2">
-        <v>87987654321</v>
-      </c>
-      <c r="F31" t="s" s="68">
-        <v>103</v>
-      </c>
+        <v>875987654321</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -2290,18 +2023,16 @@
         <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
-      <c r="F32" t="s" s="70">
-        <v>103</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
@@ -2310,18 +2041,16 @@
         <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s" s="72">
-        <v>103</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>21</v>
@@ -2330,18 +2059,16 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" t="s" s="74">
-        <v>103</v>
-      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>25</v>
@@ -2350,16 +2077,14 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" t="s" s="76">
-        <v>103</v>
-      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>21</v>
@@ -2368,18 +2093,16 @@
         <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
-      <c r="F36" t="s" s="78">
-        <v>103</v>
-      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>25</v>
@@ -2388,16 +2111,14 @@
         <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" t="s" s="80">
-        <v>103</v>
-      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>21</v>
@@ -2406,18 +2127,16 @@
         <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2">
         <v>10</v>
       </c>
-      <c r="F38" t="s" s="82">
-        <v>103</v>
-      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>25</v>
@@ -2426,19 +2145,17 @@
         <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" t="s" s="84">
-        <v>103</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>20</v>
@@ -2449,9 +2166,7 @@
       <c r="E40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" t="s" s="86">
-        <v>103</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
@@ -2467,9 +2182,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" t="s" s="88">
-        <v>103</v>
-      </c>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2481,12 +2194,482 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="68.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s" s="28">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s" s="32">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="34">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s" s="36">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="38">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s" s="40">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="42">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s" s="44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="46">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s" s="48">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s" s="50">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="52">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>